--- a/2015/201512/30_Q&A/Q&A.xlsx
+++ b/2015/201512/30_Q&A/Q&A.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\30_Q&amp;A\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="7020" tabRatio="333"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -82,12 +87,41 @@
   </si>
   <si>
     <t xml:space="preserve">Project :  </t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Thị Phượng</t>
+  </si>
+  <si>
+    <t>Hoàng Vũ</t>
+  </si>
+  <si>
+    <t>Module T</t>
+  </si>
+  <si>
+    <t>màn hình Xác nhận thủ quỹ - AF0324</t>
+  </si>
+  <si>
+    <t>Chọn đề xuất</t>
+  </si>
+  <si>
+    <t>- Hiện trạng: thep yêu cầu của Customize Hoàng Trần sẽ tạo thêm màn hình Xác nhận thủ quỹ - AF0324 để quét mã vạch thủ quỹ  và được gắn link tại Module T
+- Vấn đề: Nơi đặt màn hình Xác nhận Thủ quỹ trong Module T
+- Đề xuất:  
+  + Đề xuất 1: Tại Nghiệp vụ tạo thêm mục M Bacode Quỹ 
+  + Đề xuất 2: Tại Danh mục tạo thêm mục K Bacode Quỹ 
+  + Đề xuất 3: Tại Nghiệp vu -&gt; Tiền tại quỹ tạo thêm mục 5 Bacode Quỹ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
@@ -660,23 +694,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="25" customWidth="1"/>
     <col min="3" max="3" width="8" style="25" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
@@ -778,19 +812,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="13.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="114" customHeight="1">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="29"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="F3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="32">
+        <v>42383</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="34">
+        <v>42383</v>
+      </c>
       <c r="N3" s="34"/>
       <c r="O3" s="35"/>
       <c r="P3" s="36"/>

--- a/2015/201512/30_Q&A/Q&A.xlsx
+++ b/2015/201512/30_Q&A/Q&A.xlsx
@@ -110,12 +110,12 @@
     <t>Chọn đề xuất</t>
   </si>
   <si>
-    <t>- Hiện trạng: thep yêu cầu của Customize Hoàng Trần sẽ tạo thêm màn hình Xác nhận thủ quỹ - AF0324 để quét mã vạch thủ quỹ  và được gắn link tại Module T
+    <t>- Hiện trạng: theo yêu cầu của Customize Hoàng Trần sẽ tạo thêm màn hình Xác nhận thủ quỹ - AF0324 để quét mã vạch thủ quỹ  và được gắn link tại Module T
 - Vấn đề: Nơi đặt màn hình Xác nhận Thủ quỹ trong Module T
 - Đề xuất:  
-  + Đề xuất 1: Tại Nghiệp vụ tạo thêm mục M Bacode Quỹ 
-  + Đề xuất 2: Tại Danh mục tạo thêm mục K Bacode Quỹ 
-  + Đề xuất 3: Tại Nghiệp vu -&gt; Tiền tại quỹ tạo thêm mục 5 Bacode Quỹ</t>
+  + Đề xuất 1: Tại Nghiệp vụ tạo thêm mục M Barcode Quỹ 
+  + Đề xuất 2: Tại Danh mục tạo thêm mục K Barcode Quỹ 
+  + Đề xuất 3: Tại Nghiệp vu -&gt; Tiền tại quỹ tạo thêm mục 5 Barcode Quỹ</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>

--- a/2015/201512/30_Q&A/Q&A.xlsx
+++ b/2015/201512/30_Q&A/Q&A.xlsx
@@ -98,9 +98,6 @@
     <t>Thị Phượng</t>
   </si>
   <si>
-    <t>Hoàng Vũ</t>
-  </si>
-  <si>
     <t>Module T</t>
   </si>
   <si>
@@ -110,12 +107,15 @@
     <t>Chọn đề xuất</t>
   </si>
   <si>
+    <t>Hoàng Vũ, Phát Danh</t>
+  </si>
+  <si>
     <t>- Hiện trạng: theo yêu cầu của Customize Hoàng Trần sẽ tạo thêm màn hình Xác nhận thủ quỹ - AF0324 để quét mã vạch thủ quỹ  và được gắn link tại Module T
-- Vấn đề: Nơi đặt màn hình Xác nhận Thủ quỹ trong Module T
+- Vấn đề: Nơi đặt màn hình Xác nhận thủ quỹ - AF0324trong Module T
 - Đề xuất:  
   + Đề xuất 1: Tại Nghiệp vụ tạo thêm mục M Barcode Quỹ 
   + Đề xuất 2: Tại Danh mục tạo thêm mục K Barcode Quỹ 
-  + Đề xuất 3: Tại Nghiệp vu -&gt; Tiền tại quỹ tạo thêm mục 5 Barcode Quỹ</t>
+  + Đề xuất 3: Tại Nghiệp vụ -&gt; Tiền tại quỹ tạo thêm mục 5 Barcode Quỹ</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
@@ -823,14 +823,14 @@
         <v>22</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="32">
         <v>42383</v>
@@ -842,7 +842,7 @@
         <v>28</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M3" s="34">
         <v>42383</v>
